--- a/data/world-popultation-2020.xlsx
+++ b/data/world-popultation-2020.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvill\Proyectos\world-population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFEA506-C5AF-4ED4-BFAB-D94A31B45D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C3AC38-0BC3-401D-A51F-B83522FBC331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
-    <sheet name="DataCleaning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t xml:space="preserve"> Azerbaijan</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -76,9 +72,6 @@
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -124,9 +117,6 @@
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Burma</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -142,9 +132,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
@@ -166,45 +153,21 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>Congo (Brazzaville)</t>
-  </si>
-  <si>
-    <t>Congo (Kinshasa)</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Cruise Ship</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Curacao</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Diamond Princess</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -214,9 +177,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -241,9 +201,6 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -262,9 +219,6 @@
     <t>Gambia</t>
   </si>
   <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -295,9 +249,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
@@ -319,9 +270,6 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Hong Kong SAR</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -337,9 +285,6 @@
     <t>Iran</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -352,18 +297,12 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Jersey</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -373,12 +312,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea, South</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -409,21 +342,9 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>MS Zaandam</t>
-  </si>
-  <si>
-    <t>Macao SAR</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Mainland China</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -493,9 +414,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>North Ireland</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -505,15 +423,9 @@
     <t>Oman</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -541,54 +453,27 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Saint Barthelemy</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
     <t>Saint Martin</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -631,9 +516,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>St. Martin</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -649,27 +531,15 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>Taipei and environs</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Taiwan*</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>The Bahamas</t>
-  </si>
-  <si>
-    <t>The Gambia</t>
-  </si>
-  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
@@ -685,12 +555,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -709,21 +573,12 @@
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Vatican City</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
     <t>Western Sahara</t>
   </si>
   <si>
@@ -736,9 +591,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>occupied Palestinian territory</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -782,9 +634,6 @@
   </si>
   <si>
     <t>Macao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei </t>
   </si>
   <si>
     <t>Vanuatu</t>
@@ -923,7 +772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,38 +783,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -973,31 +805,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1007,8 +821,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,7 +1126,7 @@
   <dimension ref="A1:K236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A58"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,43 +1144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>292</v>
+      <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>38928346</v>
@@ -1376,7 +1188,7 @@
       <c r="C2">
         <v>2.33</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>886592</v>
       </c>
       <c r="E2">
@@ -1397,13 +1209,13 @@
       <c r="J2">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2877797</v>
@@ -1411,7 +1223,7 @@
       <c r="C3">
         <v>-0.11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>-3120</v>
       </c>
       <c r="E3">
@@ -1432,13 +1244,13 @@
       <c r="J3">
         <v>63</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>43851044</v>
@@ -1446,7 +1258,7 @@
       <c r="C4">
         <v>1.85</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>797990</v>
       </c>
       <c r="E4">
@@ -1467,13 +1279,13 @@
       <c r="J4">
         <v>73</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>55191</v>
@@ -1481,7 +1293,7 @@
       <c r="C5">
         <v>-0.22</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>-121</v>
       </c>
       <c r="E5">
@@ -1493,13 +1305,13 @@
       <c r="J5">
         <v>88</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>77265</v>
@@ -1507,7 +1319,7 @@
       <c r="C6">
         <v>0.16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>123</v>
       </c>
       <c r="E6">
@@ -1519,13 +1331,13 @@
       <c r="J6">
         <v>88</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>32866272</v>
@@ -1533,7 +1345,7 @@
       <c r="C7">
         <v>3.27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1040977</v>
       </c>
       <c r="E7">
@@ -1554,21 +1366,21 @@
       <c r="J7">
         <v>67</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="4">
+        <v>226</v>
+      </c>
+      <c r="B8" s="3">
         <v>1500000</v>
       </c>
       <c r="C8">
         <v>0.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>134</v>
       </c>
       <c r="E8">
@@ -1577,13 +1389,13 @@
       <c r="F8">
         <v>90</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>97929</v>
@@ -1591,7 +1403,7 @@
       <c r="C9">
         <v>0.84</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>811</v>
       </c>
       <c r="E9">
@@ -1612,13 +1424,13 @@
       <c r="J9">
         <v>26</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>45195774</v>
@@ -1626,7 +1438,7 @@
       <c r="C10">
         <v>0.93</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>415097</v>
       </c>
       <c r="E10">
@@ -1647,13 +1459,13 @@
       <c r="J10">
         <v>93</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2963243</v>
@@ -1661,7 +1473,7 @@
       <c r="C11">
         <v>0.19</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>5512</v>
       </c>
       <c r="E11">
@@ -1682,13 +1494,13 @@
       <c r="J11">
         <v>63</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>106766</v>
@@ -1696,7 +1508,7 @@
       <c r="C12">
         <v>0.43</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>452</v>
       </c>
       <c r="E12">
@@ -1717,13 +1529,13 @@
       <c r="J12">
         <v>44</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>25499884</v>
@@ -1731,7 +1543,7 @@
       <c r="C13">
         <v>1.18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>296686</v>
       </c>
       <c r="E13">
@@ -1752,13 +1564,13 @@
       <c r="J13">
         <v>86</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>9006398</v>
@@ -1766,7 +1578,7 @@
       <c r="C14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>51296</v>
       </c>
       <c r="E14">
@@ -1787,13 +1599,13 @@
       <c r="J14">
         <v>57</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>10139177</v>
@@ -1801,7 +1613,7 @@
       <c r="C15">
         <v>0.91</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>91459</v>
       </c>
       <c r="E15">
@@ -1822,13 +1634,13 @@
       <c r="J15">
         <v>56</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>393244</v>
@@ -1836,7 +1648,7 @@
       <c r="C16">
         <v>0.97</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>3762</v>
       </c>
       <c r="E16">
@@ -1857,13 +1669,13 @@
       <c r="J16">
         <v>86</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1701575</v>
@@ -1871,7 +1683,7 @@
       <c r="C17">
         <v>3.68</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>60403</v>
       </c>
       <c r="E17">
@@ -1892,13 +1704,13 @@
       <c r="J17">
         <v>89</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>164689383</v>
@@ -1906,7 +1718,7 @@
       <c r="C18">
         <v>1.01</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1643222</v>
       </c>
       <c r="E18">
@@ -1927,13 +1739,13 @@
       <c r="J18">
         <v>39</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>2.11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>287375</v>
@@ -1941,7 +1753,7 @@
       <c r="C19">
         <v>0.12</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>350</v>
       </c>
       <c r="E19">
@@ -1962,13 +1774,13 @@
       <c r="J19">
         <v>31</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>9449323</v>
@@ -1976,7 +1788,7 @@
       <c r="C20">
         <v>-0.03</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>-264</v>
       </c>
       <c r="E20">
@@ -1997,13 +1809,13 @@
       <c r="J20">
         <v>79</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>11589623</v>
@@ -2011,7 +1823,7 @@
       <c r="C21">
         <v>0.44</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>50295</v>
       </c>
       <c r="E21">
@@ -2032,13 +1844,13 @@
       <c r="J21">
         <v>98</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>397628</v>
@@ -2046,7 +1858,7 @@
       <c r="C22">
         <v>1.86</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>7275</v>
       </c>
       <c r="E22">
@@ -2067,13 +1879,13 @@
       <c r="J22">
         <v>46</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>12123200</v>
@@ -2081,7 +1893,7 @@
       <c r="C23">
         <v>2.73</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>322049</v>
       </c>
       <c r="E23">
@@ -2102,13 +1914,13 @@
       <c r="J23">
         <v>48</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B24">
         <v>62278</v>
@@ -2116,7 +1928,7 @@
       <c r="C24">
         <v>-0.36</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>-228</v>
       </c>
       <c r="E24">
@@ -2128,13 +1940,13 @@
       <c r="J24">
         <v>97</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>771608</v>
@@ -2142,7 +1954,7 @@
       <c r="C25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>8516</v>
       </c>
       <c r="E25">
@@ -2163,13 +1975,13 @@
       <c r="J25">
         <v>46</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>11673021</v>
@@ -2177,7 +1989,7 @@
       <c r="C26">
         <v>1.39</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>159921</v>
       </c>
       <c r="E26">
@@ -2198,13 +2010,13 @@
       <c r="J26">
         <v>69</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>3280819</v>
@@ -2212,7 +2024,7 @@
       <c r="C27">
         <v>-0.61</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>-362</v>
       </c>
       <c r="E27">
@@ -2233,13 +2045,13 @@
       <c r="J27">
         <v>52</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>2351627</v>
@@ -2247,7 +2059,7 @@
       <c r="C28">
         <v>2.08</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>47930</v>
       </c>
       <c r="E28">
@@ -2268,13 +2080,13 @@
       <c r="J28">
         <v>73</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>212559417</v>
@@ -2282,7 +2094,7 @@
       <c r="C29">
         <v>0.72</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1509890</v>
       </c>
       <c r="E29">
@@ -2303,13 +2115,13 @@
       <c r="J29">
         <v>88</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>2.73</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>30231</v>
@@ -2317,7 +2129,7 @@
       <c r="C30">
         <v>0.67</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>201</v>
       </c>
       <c r="E30">
@@ -2329,13 +2141,13 @@
       <c r="J30">
         <v>52</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>437479</v>
@@ -2343,7 +2155,7 @@
       <c r="C31">
         <v>0.97</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>4194</v>
       </c>
       <c r="E31">
@@ -2364,13 +2176,13 @@
       <c r="J31">
         <v>80</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>6948445</v>
@@ -2378,7 +2190,7 @@
       <c r="C32">
         <v>-0.74</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>-51674</v>
       </c>
       <c r="E32">
@@ -2399,13 +2211,13 @@
       <c r="J32">
         <v>76</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>20903273</v>
@@ -2413,7 +2225,7 @@
       <c r="C33">
         <v>2.86</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>581895</v>
       </c>
       <c r="E33">
@@ -2434,13 +2246,13 @@
       <c r="J33">
         <v>31</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>0.27</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>11890784</v>
@@ -2448,7 +2260,7 @@
       <c r="C34">
         <v>3.12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>360204</v>
       </c>
       <c r="E34">
@@ -2457,7 +2269,7 @@
       <c r="F34">
         <v>25680</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>2000</v>
       </c>
       <c r="H34">
@@ -2469,13 +2281,13 @@
       <c r="J34">
         <v>14</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>555987</v>
@@ -2483,7 +2295,7 @@
       <c r="C35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>6052</v>
       </c>
       <c r="E35">
@@ -2504,13 +2316,13 @@
       <c r="J35">
         <v>68</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>16718965</v>
@@ -2518,7 +2330,7 @@
       <c r="C36">
         <v>1.41</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>232423</v>
       </c>
       <c r="E36">
@@ -2539,13 +2351,13 @@
       <c r="J36">
         <v>24</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>0.21</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>26545863</v>
@@ -2553,7 +2365,7 @@
       <c r="C37">
         <v>2.59</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>669483</v>
       </c>
       <c r="E37">
@@ -2574,13 +2386,13 @@
       <c r="J37">
         <v>56</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>37742154</v>
@@ -2588,7 +2400,7 @@
       <c r="C38">
         <v>0.89</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>331107</v>
       </c>
       <c r="E38">
@@ -2609,13 +2421,13 @@
       <c r="J38">
         <v>81</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>0.48</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="B39">
         <v>26223</v>
@@ -2623,7 +2435,7 @@
       <c r="C39">
         <v>0.94</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>244</v>
       </c>
       <c r="E39">
@@ -2635,13 +2447,13 @@
       <c r="J39">
         <v>75</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>65722</v>
@@ -2649,7 +2461,7 @@
       <c r="C40">
         <v>1.19</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>774</v>
       </c>
       <c r="E40">
@@ -2661,13 +2473,13 @@
       <c r="J40">
         <v>97</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>4829767</v>
@@ -2675,7 +2487,7 @@
       <c r="C41">
         <v>1.78</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>84582</v>
       </c>
       <c r="E41">
@@ -2696,13 +2508,13 @@
       <c r="J41">
         <v>43</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>16425864</v>
@@ -2710,7 +2522,7 @@
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>478988</v>
       </c>
       <c r="E42">
@@ -2731,13 +2543,13 @@
       <c r="J42">
         <v>23</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>0.21</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>173863</v>
@@ -2745,7 +2557,7 @@
       <c r="C43">
         <v>0.93</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>1604</v>
       </c>
       <c r="E43">
@@ -2766,13 +2578,13 @@
       <c r="J43">
         <v>30</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>19116201</v>
@@ -2780,7 +2592,7 @@
       <c r="C44">
         <v>0.87</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>164163</v>
       </c>
       <c r="E44">
@@ -2801,13 +2613,13 @@
       <c r="J44">
         <v>85</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>1439323776</v>
@@ -2815,7 +2627,7 @@
       <c r="C45">
         <v>0.39</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>5540090</v>
       </c>
       <c r="E45">
@@ -2836,13 +2648,13 @@
       <c r="J45">
         <v>61</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>18.47</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>50882891</v>
@@ -2850,7 +2662,7 @@
       <c r="C46">
         <v>1.08</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>543448</v>
       </c>
       <c r="E46">
@@ -2871,13 +2683,13 @@
       <c r="J46">
         <v>80</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>0.65</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="B47">
         <v>869601</v>
@@ -2885,7 +2697,7 @@
       <c r="C47">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>18715</v>
       </c>
       <c r="E47">
@@ -2906,13 +2718,13 @@
       <c r="J47">
         <v>29</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="B48">
         <v>5518087</v>
@@ -2920,7 +2732,7 @@
       <c r="C48">
         <v>2.56</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>137579</v>
       </c>
       <c r="E48">
@@ -2941,13 +2753,13 @@
       <c r="J48">
         <v>70</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="B49">
         <v>17564</v>
@@ -2955,7 +2767,7 @@
       <c r="C49">
         <v>0.09</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>16</v>
       </c>
       <c r="E49">
@@ -2967,13 +2779,13 @@
       <c r="J49">
         <v>75</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>5094118</v>
@@ -2981,7 +2793,7 @@
       <c r="C50">
         <v>0.92</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>46557</v>
       </c>
       <c r="E50">
@@ -3002,13 +2814,13 @@
       <c r="J50">
         <v>80</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B51">
         <v>26378274</v>
@@ -3016,7 +2828,7 @@
       <c r="C51">
         <v>2.57</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>661730</v>
       </c>
       <c r="E51">
@@ -3037,13 +2849,13 @@
       <c r="J51">
         <v>51</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>4105267</v>
@@ -3051,7 +2863,7 @@
       <c r="C52">
         <v>-0.61</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>-925</v>
       </c>
       <c r="E52">
@@ -3060,7 +2872,7 @@
       <c r="F52">
         <v>55960</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>-8000</v>
       </c>
       <c r="H52">
@@ -3072,13 +2884,13 @@
       <c r="J52">
         <v>58</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>11326616</v>
@@ -3086,7 +2898,7 @@
       <c r="C53">
         <v>-0.06</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>-6867</v>
       </c>
       <c r="E53">
@@ -3107,13 +2919,13 @@
       <c r="J53">
         <v>78</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="B54">
         <v>164093</v>
@@ -3121,7 +2933,7 @@
       <c r="C54">
         <v>0.41</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>669</v>
       </c>
       <c r="E54">
@@ -3142,13 +2954,13 @@
       <c r="J54">
         <v>89</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B55">
         <v>1207359</v>
@@ -3156,7 +2968,7 @@
       <c r="C55">
         <v>0.73</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>8784</v>
       </c>
       <c r="E55">
@@ -3177,13 +2989,13 @@
       <c r="J55">
         <v>67</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="B56">
         <v>10708981</v>
@@ -3191,7 +3003,7 @@
       <c r="C56">
         <v>0.18</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>19772</v>
       </c>
       <c r="E56">
@@ -3212,13 +3024,13 @@
       <c r="J56">
         <v>74</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>5792202</v>
@@ -3226,7 +3038,7 @@
       <c r="C57">
         <v>0.35</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>20326</v>
       </c>
       <c r="E57">
@@ -3247,13 +3059,13 @@
       <c r="J57">
         <v>88</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>988000</v>
@@ -3261,7 +3073,7 @@
       <c r="C58">
         <v>1.48</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>14440</v>
       </c>
       <c r="E58">
@@ -3282,13 +3094,13 @@
       <c r="J58">
         <v>79</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>71986</v>
@@ -3296,7 +3108,7 @@
       <c r="C59">
         <v>0.25</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>178</v>
       </c>
       <c r="E59">
@@ -3308,13 +3120,13 @@
       <c r="J59">
         <v>74</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>10847910</v>
@@ -3322,7 +3134,7 @@
       <c r="C60">
         <v>1.01</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>108952</v>
       </c>
       <c r="E60">
@@ -3343,13 +3155,13 @@
       <c r="J60">
         <v>85</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B61">
         <v>89561403</v>
@@ -3357,7 +3169,7 @@
       <c r="C61">
         <v>3.19</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>2770836</v>
       </c>
       <c r="E61">
@@ -3378,13 +3190,13 @@
       <c r="J61">
         <v>46</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>17643054</v>
@@ -3392,7 +3204,7 @@
       <c r="C62">
         <v>1.55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>269392</v>
       </c>
       <c r="E62">
@@ -3413,13 +3225,13 @@
       <c r="J62">
         <v>63</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <v>0.23</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>102334404</v>
@@ -3427,7 +3239,7 @@
       <c r="C63">
         <v>1.94</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>1946331</v>
       </c>
       <c r="E63">
@@ -3448,13 +3260,13 @@
       <c r="J63">
         <v>43</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>1.31</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>6486205</v>
@@ -3462,7 +3274,7 @@
       <c r="C64">
         <v>0.51</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>32652</v>
       </c>
       <c r="E64">
@@ -3483,13 +3295,13 @@
       <c r="J64">
         <v>73</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>1402985</v>
@@ -3497,7 +3309,7 @@
       <c r="C65">
         <v>3.47</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>46999</v>
       </c>
       <c r="E65">
@@ -3518,13 +3330,13 @@
       <c r="J65">
         <v>73</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>3546421</v>
@@ -3532,7 +3344,7 @@
       <c r="C66">
         <v>1.41</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>49304</v>
       </c>
       <c r="E66">
@@ -3553,13 +3365,13 @@
       <c r="J66">
         <v>63</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B67">
         <v>1326535</v>
@@ -3567,7 +3379,7 @@
       <c r="C67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>887</v>
       </c>
       <c r="E67">
@@ -3588,13 +3400,13 @@
       <c r="J67">
         <v>68</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>1160164</v>
@@ -3602,7 +3414,7 @@
       <c r="C68">
         <v>1.05</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>12034</v>
       </c>
       <c r="E68">
@@ -3623,13 +3435,13 @@
       <c r="J68">
         <v>30</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B69">
         <v>114963588</v>
@@ -3637,7 +3449,7 @@
       <c r="C69">
         <v>2.57</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>2884858</v>
       </c>
       <c r="E69">
@@ -3658,13 +3470,13 @@
       <c r="J69">
         <v>21</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <v>1.47</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="B70">
         <v>48863</v>
@@ -3672,7 +3484,7 @@
       <c r="C70">
         <v>0.38</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>185</v>
       </c>
       <c r="E70">
@@ -3684,13 +3496,13 @@
       <c r="J70">
         <v>43</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="B71">
         <v>3480</v>
@@ -3698,7 +3510,7 @@
       <c r="C71">
         <v>3.05</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>103</v>
       </c>
       <c r="E71">
@@ -3710,13 +3522,13 @@
       <c r="J71">
         <v>66</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B72">
         <v>896445</v>
@@ -3724,7 +3536,7 @@
       <c r="C72">
         <v>0.73</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>6492</v>
       </c>
       <c r="E72">
@@ -3745,13 +3557,13 @@
       <c r="J72">
         <v>59</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B73">
         <v>5540720</v>
@@ -3759,7 +3571,7 @@
       <c r="C73">
         <v>0.15</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>8564</v>
       </c>
       <c r="E73">
@@ -3780,13 +3592,13 @@
       <c r="J73">
         <v>86</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>65273511</v>
@@ -3794,7 +3606,7 @@
       <c r="C74">
         <v>0.22</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>143783</v>
       </c>
       <c r="E74">
@@ -3815,13 +3627,13 @@
       <c r="J74">
         <v>82</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <v>0.84</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B75">
         <v>298682</v>
@@ -3829,7 +3641,7 @@
       <c r="C75">
         <v>2.7</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>7850</v>
       </c>
       <c r="E75">
@@ -3850,13 +3662,13 @@
       <c r="J75">
         <v>87</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B76">
         <v>280908</v>
@@ -3864,7 +3676,7 @@
       <c r="C76">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>1621</v>
       </c>
       <c r="E76">
@@ -3885,13 +3697,13 @@
       <c r="J76">
         <v>64</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B77">
         <v>2225734</v>
@@ -3899,7 +3711,7 @@
       <c r="C77">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>53155</v>
       </c>
       <c r="E77">
@@ -3920,13 +3732,13 @@
       <c r="J77">
         <v>87</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B78">
         <v>2416668</v>
@@ -3934,7 +3746,7 @@
       <c r="C78">
         <v>2.94</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>68962</v>
       </c>
       <c r="E78">
@@ -3955,13 +3767,13 @@
       <c r="J78">
         <v>59</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B79">
         <v>3989167</v>
@@ -3969,7 +3781,7 @@
       <c r="C79">
         <v>-0.19</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>-7598</v>
       </c>
       <c r="E79">
@@ -3990,13 +3802,13 @@
       <c r="J79">
         <v>58</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B80">
         <v>83783942</v>
@@ -4004,7 +3816,7 @@
       <c r="C80">
         <v>0.32</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>266897</v>
       </c>
       <c r="E80">
@@ -4025,13 +3837,13 @@
       <c r="J80">
         <v>76</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>1.07</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B81">
         <v>31072940</v>
@@ -4039,7 +3851,7 @@
       <c r="C81">
         <v>2.15</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>655084</v>
       </c>
       <c r="E81">
@@ -4060,13 +3872,13 @@
       <c r="J81">
         <v>57</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B82">
         <v>33691</v>
@@ -4074,7 +3886,7 @@
       <c r="C82">
         <v>-0.03</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>-10</v>
       </c>
       <c r="E82">
@@ -4083,13 +3895,13 @@
       <c r="F82">
         <v>10</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B83">
         <v>10423054</v>
@@ -4097,7 +3909,7 @@
       <c r="C83">
         <v>-0.48</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>-2</v>
       </c>
       <c r="E83">
@@ -4118,13 +3930,13 @@
       <c r="J83">
         <v>85</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>56770</v>
@@ -4132,7 +3944,7 @@
       <c r="C84">
         <v>0.17</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>98</v>
       </c>
       <c r="E84">
@@ -4144,13 +3956,13 @@
       <c r="J84">
         <v>87</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>112523</v>
@@ -4158,7 +3970,7 @@
       <c r="C85">
         <v>0.46</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>520</v>
       </c>
       <c r="E85">
@@ -4179,13 +3991,13 @@
       <c r="J85">
         <v>35</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>400124</v>
@@ -4193,7 +4005,7 @@
       <c r="C86">
         <v>0.02</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>68</v>
       </c>
       <c r="E86">
@@ -4211,13 +4023,13 @@
       <c r="I86">
         <v>44</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>168775</v>
@@ -4225,7 +4037,7 @@
       <c r="C87">
         <v>0.89</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>1481</v>
       </c>
       <c r="E87">
@@ -4246,13 +4058,13 @@
       <c r="J87">
         <v>95</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>17915568</v>
@@ -4260,7 +4072,7 @@
       <c r="C88">
         <v>1.9</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>334096</v>
       </c>
       <c r="E88">
@@ -4281,13 +4093,13 @@
       <c r="J88">
         <v>52</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <v>0.23</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B89">
         <v>13132795</v>
@@ -4295,7 +4107,7 @@
       <c r="C89">
         <v>2.83</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>361549</v>
       </c>
       <c r="E89">
@@ -4316,13 +4128,13 @@
       <c r="J89">
         <v>39</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <v>0.17</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B90">
         <v>1968001</v>
@@ -4330,7 +4142,7 @@
       <c r="C90">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>47079</v>
       </c>
       <c r="E90">
@@ -4351,13 +4163,13 @@
       <c r="J90">
         <v>45</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B91">
         <v>786552</v>
@@ -4365,7 +4177,7 @@
       <c r="C91">
         <v>0.48</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>3786</v>
       </c>
       <c r="E91">
@@ -4386,13 +4198,13 @@
       <c r="J91">
         <v>27</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>11402528</v>
@@ -4400,7 +4212,7 @@
       <c r="C92">
         <v>1.24</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>139451</v>
       </c>
       <c r="E92">
@@ -4421,13 +4233,13 @@
       <c r="J92">
         <v>57</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>801</v>
@@ -4435,22 +4247,22 @@
       <c r="C93">
         <v>0.25</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>2</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>2000</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>9904607</v>
@@ -4458,7 +4270,7 @@
       <c r="C94">
         <v>1.63</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>158490</v>
       </c>
       <c r="E94">
@@ -4479,13 +4291,13 @@
       <c r="J94">
         <v>57</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <v>7496981</v>
@@ -4493,7 +4305,7 @@
       <c r="C95">
         <v>0.82</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>60827</v>
       </c>
       <c r="E95">
@@ -4511,13 +4323,13 @@
       <c r="I95">
         <v>45</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>9660351</v>
@@ -4525,7 +4337,7 @@
       <c r="C96">
         <v>-0.25</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>-24328</v>
       </c>
       <c r="E96">
@@ -4546,13 +4358,13 @@
       <c r="J96">
         <v>72</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B97">
         <v>341243</v>
@@ -4560,7 +4372,7 @@
       <c r="C97">
         <v>0.65</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>2212</v>
       </c>
       <c r="E97">
@@ -4581,13 +4393,13 @@
       <c r="J97">
         <v>94</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B98">
         <v>1380004385</v>
@@ -4595,7 +4407,7 @@
       <c r="C98">
         <v>0.99</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>13586631</v>
       </c>
       <c r="E98">
@@ -4616,13 +4428,13 @@
       <c r="J98">
         <v>35</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="2">
         <v>17.7</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B99">
         <v>273523615</v>
@@ -4630,7 +4442,7 @@
       <c r="C99">
         <v>1.07</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>2898047</v>
       </c>
       <c r="E99">
@@ -4651,13 +4463,13 @@
       <c r="J99">
         <v>56</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <v>3.51</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B100">
         <v>83992949</v>
@@ -4665,7 +4477,7 @@
       <c r="C100">
         <v>1.3</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>1079043</v>
       </c>
       <c r="E100">
@@ -4686,13 +4498,13 @@
       <c r="J100">
         <v>76</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <v>1.08</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B101">
         <v>40222493</v>
@@ -4700,7 +4512,7 @@
       <c r="C101">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>912710</v>
       </c>
       <c r="E101">
@@ -4721,13 +4533,13 @@
       <c r="J101">
         <v>73</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <v>0.52</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B102">
         <v>4937786</v>
@@ -4735,7 +4547,7 @@
       <c r="C102">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>55291</v>
       </c>
       <c r="E102">
@@ -4756,13 +4568,13 @@
       <c r="J102">
         <v>63</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>85033</v>
@@ -4770,7 +4582,7 @@
       <c r="C103">
         <v>0.53</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>449</v>
       </c>
       <c r="E103">
@@ -4782,13 +4594,13 @@
       <c r="J103">
         <v>53</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B104">
         <v>8655535</v>
@@ -4796,7 +4608,7 @@
       <c r="C104">
         <v>1.6</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>136158</v>
       </c>
       <c r="E104">
@@ -4817,13 +4629,13 @@
       <c r="J104">
         <v>93</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B105">
         <v>60461826</v>
@@ -4831,7 +4643,7 @@
       <c r="C105">
         <v>-0.15</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>-88249</v>
       </c>
       <c r="E105">
@@ -4852,13 +4664,13 @@
       <c r="J105">
         <v>69</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <v>0.78</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>2961167</v>
@@ -4866,7 +4678,7 @@
       <c r="C106">
         <v>0.44</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>12888</v>
       </c>
       <c r="E106">
@@ -4887,13 +4699,13 @@
       <c r="J106">
         <v>55</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B107">
         <v>126476461</v>
@@ -4901,7 +4713,7 @@
       <c r="C107">
         <v>-0.3</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>-383840</v>
       </c>
       <c r="E107">
@@ -4922,13 +4734,13 @@
       <c r="J107">
         <v>92</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <v>1.62</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>10203134</v>
@@ -4936,7 +4748,7 @@
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>101440</v>
       </c>
       <c r="E108">
@@ -4957,13 +4769,13 @@
       <c r="J108">
         <v>91</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B109">
         <v>18776707</v>
@@ -4971,7 +4783,7 @@
       <c r="C109">
         <v>1.21</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>225280</v>
       </c>
       <c r="E109">
@@ -4992,13 +4804,13 @@
       <c r="J109">
         <v>58</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="2">
         <v>0.24</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B110">
         <v>53771296</v>
@@ -5006,7 +4818,7 @@
       <c r="C110">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>1197323</v>
       </c>
       <c r="E110">
@@ -5027,13 +4839,13 @@
       <c r="J110">
         <v>28</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="2">
         <v>0.69</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="B111">
         <v>119449</v>
@@ -5041,7 +4853,7 @@
       <c r="C111">
         <v>1.57</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>1843</v>
       </c>
       <c r="E111">
@@ -5062,13 +4874,13 @@
       <c r="J111">
         <v>57</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B112">
         <v>4270571</v>
@@ -5076,7 +4888,7 @@
       <c r="C112">
         <v>1.51</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>63488</v>
       </c>
       <c r="E112">
@@ -5094,13 +4906,13 @@
       <c r="I112">
         <v>37</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B113">
         <v>6524195</v>
@@ -5108,7 +4920,7 @@
       <c r="C113">
         <v>1.69</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>108345</v>
       </c>
       <c r="E113">
@@ -5129,13 +4941,13 @@
       <c r="J113">
         <v>36</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B114">
         <v>7275560</v>
@@ -5143,7 +4955,7 @@
       <c r="C114">
         <v>1.48</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>106105</v>
       </c>
       <c r="E114">
@@ -5164,13 +4976,13 @@
       <c r="J114">
         <v>36</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B115">
         <v>1886198</v>
@@ -5178,7 +4990,7 @@
       <c r="C115">
         <v>-1.08</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>-109</v>
       </c>
       <c r="E115">
@@ -5199,13 +5011,13 @@
       <c r="J115">
         <v>69</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B116">
         <v>6825445</v>
@@ -5213,7 +5025,7 @@
       <c r="C116">
         <v>-0.44</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>-804</v>
       </c>
       <c r="E116">
@@ -5234,13 +5046,13 @@
       <c r="J116">
         <v>78</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="B117">
         <v>2142249</v>
@@ -5248,7 +5060,7 @@
       <c r="C117">
         <v>0.8</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>16981</v>
       </c>
       <c r="E117">
@@ -5269,13 +5081,13 @@
       <c r="J117">
         <v>31</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <v>5057681</v>
@@ -5283,7 +5095,7 @@
       <c r="C118">
         <v>2.44</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>120307</v>
       </c>
       <c r="E118">
@@ -5304,13 +5116,13 @@
       <c r="J118">
         <v>53</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>6871292</v>
@@ -5318,7 +5130,7 @@
       <c r="C119">
         <v>1.38</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>93840</v>
       </c>
       <c r="E119">
@@ -5339,13 +5151,13 @@
       <c r="J119">
         <v>78</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B120">
         <v>38128</v>
@@ -5353,7 +5165,7 @@
       <c r="C120">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>109</v>
       </c>
       <c r="E120">
@@ -5365,13 +5177,13 @@
       <c r="J120">
         <v>15</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <v>2722289</v>
@@ -5379,7 +5191,7 @@
       <c r="C121">
         <v>-1.35</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>-37338</v>
       </c>
       <c r="E121">
@@ -5400,13 +5212,13 @@
       <c r="J121">
         <v>71</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B122">
         <v>625978</v>
@@ -5414,7 +5226,7 @@
       <c r="C122">
         <v>1.66</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>10249</v>
       </c>
       <c r="E122">
@@ -5435,13 +5247,13 @@
       <c r="J122">
         <v>88</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B123">
         <v>649335</v>
@@ -5449,7 +5261,7 @@
       <c r="C123">
         <v>1.39</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="2">
         <v>8890</v>
       </c>
       <c r="E123">
@@ -5467,13 +5279,13 @@
       <c r="I123">
         <v>39</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B124">
         <v>27691018</v>
@@ -5481,7 +5293,7 @@
       <c r="C124">
         <v>2.68</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="2">
         <v>721711</v>
       </c>
       <c r="E124">
@@ -5502,13 +5314,13 @@
       <c r="J124">
         <v>39</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="2">
         <v>0.36</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B125">
         <v>19129952</v>
@@ -5516,7 +5328,7 @@
       <c r="C125">
         <v>2.69</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>501205</v>
       </c>
       <c r="E125">
@@ -5537,13 +5349,13 @@
       <c r="J125">
         <v>18</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B126">
         <v>32365999</v>
@@ -5551,7 +5363,7 @@
       <c r="C126">
         <v>1.3</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="2">
         <v>416222</v>
       </c>
       <c r="E126">
@@ -5572,13 +5384,13 @@
       <c r="J126">
         <v>78</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="2">
         <v>0.42</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B127">
         <v>540544</v>
@@ -5586,7 +5398,7 @@
       <c r="C127">
         <v>1.81</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>9591</v>
       </c>
       <c r="E127">
@@ -5607,13 +5419,13 @@
       <c r="J127">
         <v>35</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B128">
         <v>20250833</v>
@@ -5621,7 +5433,7 @@
       <c r="C128">
         <v>3.02</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>592802</v>
       </c>
       <c r="E128">
@@ -5642,13 +5454,13 @@
       <c r="J128">
         <v>44</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K128" s="2">
         <v>0.26</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B129">
         <v>441543</v>
@@ -5656,7 +5468,7 @@
       <c r="C129">
         <v>0.27</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="2">
         <v>1171</v>
       </c>
       <c r="E129">
@@ -5677,13 +5489,13 @@
       <c r="J129">
         <v>93</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="B130">
         <v>59190</v>
@@ -5691,7 +5503,7 @@
       <c r="C130">
         <v>0.68</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="2">
         <v>399</v>
       </c>
       <c r="E130">
@@ -5703,13 +5515,13 @@
       <c r="J130">
         <v>70</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B131">
         <v>375265</v>
@@ -5717,7 +5529,7 @@
       <c r="C131">
         <v>-0.08</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="2">
         <v>-289</v>
       </c>
       <c r="E131">
@@ -5738,13 +5550,13 @@
       <c r="J131">
         <v>92</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B132">
         <v>4649658</v>
@@ -5752,7 +5564,7 @@
       <c r="C132">
         <v>2.74</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="2">
         <v>123962</v>
       </c>
       <c r="E132">
@@ -5773,13 +5585,13 @@
       <c r="J132">
         <v>57</v>
       </c>
-      <c r="K132" s="3">
+      <c r="K132" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B133">
         <v>1271768</v>
@@ -5787,7 +5599,7 @@
       <c r="C133">
         <v>0.17</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="2">
         <v>2100</v>
       </c>
       <c r="E133">
@@ -5808,13 +5620,13 @@
       <c r="J133">
         <v>41</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K133" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B134">
         <v>272815</v>
@@ -5822,7 +5634,7 @@
       <c r="C134">
         <v>2.5</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="2">
         <v>6665</v>
       </c>
       <c r="E134">
@@ -5843,13 +5655,13 @@
       <c r="J134">
         <v>46</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B135">
         <v>128932753</v>
@@ -5857,7 +5669,7 @@
       <c r="C135">
         <v>1.06</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="2">
         <v>1357224</v>
       </c>
       <c r="E135">
@@ -5878,13 +5690,13 @@
       <c r="J135">
         <v>84</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="2">
         <v>1.65</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="B136">
         <v>115023</v>
@@ -5892,7 +5704,7 @@
       <c r="C136">
         <v>1.06</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="2">
         <v>1208</v>
       </c>
       <c r="E136">
@@ -5913,13 +5725,13 @@
       <c r="J136">
         <v>21</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B137">
         <v>4033963</v>
@@ -5927,7 +5739,7 @@
       <c r="C137">
         <v>-0.23</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="2">
         <v>-9300</v>
       </c>
       <c r="E137">
@@ -5948,13 +5760,13 @@
       <c r="J137">
         <v>43</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B138">
         <v>39242</v>
@@ -5962,7 +5774,7 @@
       <c r="C138">
         <v>0.71</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="2">
         <v>278</v>
       </c>
       <c r="E138">
@@ -5971,13 +5783,13 @@
       <c r="F138">
         <v>1</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B139">
         <v>3278290</v>
@@ -5985,7 +5797,7 @@
       <c r="C139">
         <v>1.65</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="2">
         <v>53123</v>
       </c>
       <c r="E139">
@@ -6006,13 +5818,13 @@
       <c r="J139">
         <v>67</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B140">
         <v>628066</v>
@@ -6020,7 +5832,7 @@
       <c r="C140">
         <v>0.01</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>79</v>
       </c>
       <c r="E140">
@@ -6041,13 +5853,13 @@
       <c r="J140">
         <v>68</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B141">
         <v>4992</v>
@@ -6055,7 +5867,7 @@
       <c r="C141">
         <v>0.06</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="2">
         <v>3</v>
       </c>
       <c r="E141">
@@ -6067,13 +5879,13 @@
       <c r="J141">
         <v>10</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B142">
         <v>36910560</v>
@@ -6081,7 +5893,7 @@
       <c r="C142">
         <v>1.2</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="2">
         <v>438791</v>
       </c>
       <c r="E142">
@@ -6102,13 +5914,13 @@
       <c r="J142">
         <v>64</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="2">
         <v>0.47</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B143">
         <v>31255435</v>
@@ -6116,7 +5928,7 @@
       <c r="C143">
         <v>2.93</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="2">
         <v>889399</v>
       </c>
       <c r="E143">
@@ -6137,13 +5949,13 @@
       <c r="J143">
         <v>38</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="2">
         <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="B144">
         <v>54409800</v>
@@ -6151,7 +5963,7 @@
       <c r="C144">
         <v>0.67</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>364380</v>
       </c>
       <c r="E144">
@@ -6172,13 +5984,13 @@
       <c r="J144">
         <v>31</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="2">
         <v>0.7</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B145">
         <v>2540905</v>
@@ -6186,7 +5998,7 @@
       <c r="C145">
         <v>1.86</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>46375</v>
       </c>
       <c r="E145">
@@ -6207,13 +6019,13 @@
       <c r="J145">
         <v>55</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="B146">
         <v>10824</v>
@@ -6221,7 +6033,7 @@
       <c r="C146">
         <v>0.63</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>68</v>
       </c>
       <c r="E146">
@@ -6230,13 +6042,13 @@
       <c r="F146">
         <v>20</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B147">
         <v>29136808</v>
@@ -6244,7 +6056,7 @@
       <c r="C147">
         <v>1.85</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="2">
         <v>528098</v>
       </c>
       <c r="E147">
@@ -6265,13 +6077,13 @@
       <c r="J147">
         <v>21</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="2">
         <v>0.37</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B148">
         <v>17134872</v>
@@ -6279,7 +6091,7 @@
       <c r="C148">
         <v>0.22</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="2">
         <v>37742</v>
       </c>
       <c r="E148">
@@ -6300,13 +6112,13 @@
       <c r="J148">
         <v>92</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="2">
         <v>0.22</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="B149">
         <v>285498</v>
@@ -6314,7 +6126,7 @@
       <c r="C149">
         <v>0.97</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="2">
         <v>2748</v>
       </c>
       <c r="E149">
@@ -6335,13 +6147,13 @@
       <c r="J149">
         <v>72</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B150">
         <v>4822233</v>
@@ -6349,7 +6161,7 @@
       <c r="C150">
         <v>0.82</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="2">
         <v>39170</v>
       </c>
       <c r="E150">
@@ -6370,13 +6182,13 @@
       <c r="J150">
         <v>87</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B151">
         <v>6624554</v>
@@ -6384,7 +6196,7 @@
       <c r="C151">
         <v>1.21</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="2">
         <v>79052</v>
       </c>
       <c r="E151">
@@ -6405,13 +6217,13 @@
       <c r="J151">
         <v>57</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B152">
         <v>24206644</v>
@@ -6419,7 +6231,7 @@
       <c r="C152">
         <v>3.84</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="2">
         <v>895929</v>
       </c>
       <c r="E152">
@@ -6440,13 +6252,13 @@
       <c r="J152">
         <v>17</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="2">
         <v>0.31</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B153">
         <v>206139589</v>
@@ -6454,7 +6266,7 @@
       <c r="C153">
         <v>2.58</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="2">
         <v>5175990</v>
       </c>
       <c r="E153">
@@ -6475,13 +6287,13 @@
       <c r="J153">
         <v>52</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K153" s="2">
         <v>2.64</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B154">
         <v>1626</v>
@@ -6489,7 +6301,7 @@
       <c r="C154">
         <v>0.68</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>11</v>
       </c>
       <c r="E154">
@@ -6501,13 +6313,13 @@
       <c r="J154">
         <v>46</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="B155">
         <v>25778816</v>
@@ -6515,7 +6327,7 @@
       <c r="C155">
         <v>0.44</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="2">
         <v>112655</v>
       </c>
       <c r="E155">
@@ -6536,13 +6348,13 @@
       <c r="J155">
         <v>63</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K155" s="2">
         <v>0.33</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B156">
         <v>2083374</v>
@@ -6550,7 +6362,7 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="2">
         <v>-85</v>
       </c>
       <c r="E156">
@@ -6571,13 +6383,13 @@
       <c r="J156">
         <v>59</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K156" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B157">
         <v>57559</v>
@@ -6585,7 +6397,7 @@
       <c r="C157">
         <v>0.6</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="2">
         <v>343</v>
       </c>
       <c r="E157">
@@ -6597,13 +6409,13 @@
       <c r="J157">
         <v>88</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K157" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B158">
         <v>5421241</v>
@@ -6611,7 +6423,7 @@
       <c r="C158">
         <v>0.79</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="2">
         <v>42384</v>
       </c>
       <c r="E158">
@@ -6632,13 +6444,13 @@
       <c r="J158">
         <v>83</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K158" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B159">
         <v>5106626</v>
@@ -6646,7 +6458,7 @@
       <c r="C159">
         <v>2.65</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="2">
         <v>131640</v>
       </c>
       <c r="E159">
@@ -6667,13 +6479,13 @@
       <c r="J159">
         <v>87</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K159" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B160">
         <v>220892340</v>
@@ -6681,7 +6493,7 @@
       <c r="C160">
         <v>2</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="2">
         <v>4327022</v>
       </c>
       <c r="E160">
@@ -6702,13 +6514,13 @@
       <c r="J160">
         <v>35</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160" s="2">
         <v>2.83</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B161">
         <v>18094</v>
@@ -6716,7 +6528,7 @@
       <c r="C161">
         <v>0.48</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="2">
         <v>86</v>
       </c>
       <c r="E161">
@@ -6725,13 +6537,13 @@
       <c r="F161">
         <v>460</v>
       </c>
-      <c r="K161" s="3">
+      <c r="K161" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B162">
         <v>4314767</v>
@@ -6739,7 +6551,7 @@
       <c r="C162">
         <v>1.61</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="2">
         <v>68328</v>
       </c>
       <c r="E162">
@@ -6760,13 +6572,13 @@
       <c r="J162">
         <v>68</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B163">
         <v>8947024</v>
@@ -6774,7 +6586,7 @@
       <c r="C163">
         <v>1.95</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="2">
         <v>170915</v>
       </c>
       <c r="E163">
@@ -6795,13 +6607,13 @@
       <c r="J163">
         <v>13</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K163" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B164">
         <v>7132538</v>
@@ -6809,7 +6621,7 @@
       <c r="C164">
         <v>1.25</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="2">
         <v>87902</v>
       </c>
       <c r="E164">
@@ -6830,13 +6642,13 @@
       <c r="J164">
         <v>62</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B165">
         <v>32971854</v>
@@ -6844,7 +6656,7 @@
       <c r="C165">
         <v>1.42</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="2">
         <v>461401</v>
       </c>
       <c r="E165">
@@ -6865,13 +6677,13 @@
       <c r="J165">
         <v>79</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="2">
         <v>0.42</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B166">
         <v>109581078</v>
@@ -6879,7 +6691,7 @@
       <c r="C166">
         <v>1.35</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="2">
         <v>1464463</v>
       </c>
       <c r="E166">
@@ -6900,13 +6712,13 @@
       <c r="J166">
         <v>47</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K166" s="2">
         <v>1.41</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B167">
         <v>37846611</v>
@@ -6914,7 +6726,7 @@
       <c r="C167">
         <v>-0.11</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="2">
         <v>-41157</v>
       </c>
       <c r="E167">
@@ -6935,13 +6747,13 @@
       <c r="J167">
         <v>60</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K167" s="2">
         <v>0.49</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B168">
         <v>10196709</v>
@@ -6949,7 +6761,7 @@
       <c r="C168">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="2">
         <v>-29478</v>
       </c>
       <c r="E168">
@@ -6970,13 +6782,13 @@
       <c r="J168">
         <v>66</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K168" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B169">
         <v>2860853</v>
@@ -6984,7 +6796,7 @@
       <c r="C169">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="2">
         <v>-72555</v>
       </c>
       <c r="E169">
@@ -7002,13 +6814,13 @@
       <c r="I169">
         <v>44</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K169" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B170">
         <v>2881053</v>
@@ -7016,7 +6828,7 @@
       <c r="C170">
         <v>1.73</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="2">
         <v>48986</v>
       </c>
       <c r="E170">
@@ -7037,13 +6849,13 @@
       <c r="J170">
         <v>96</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K170" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="B171">
         <v>895312</v>
@@ -7051,7 +6863,7 @@
       <c r="C171">
         <v>0.72</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="2">
         <v>6385</v>
       </c>
       <c r="E171">
@@ -7072,13 +6884,13 @@
       <c r="J171">
         <v>100</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K171" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B172">
         <v>19237691</v>
@@ -7086,7 +6898,7 @@
       <c r="C172">
         <v>-0.66</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="2">
         <v>-126866</v>
       </c>
       <c r="E172">
@@ -7107,13 +6919,13 @@
       <c r="J172">
         <v>55</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K172" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B173">
         <v>145934462</v>
@@ -7121,7 +6933,7 @@
       <c r="C173">
         <v>0.04</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="2">
         <v>62206</v>
       </c>
       <c r="E173">
@@ -7142,13 +6954,13 @@
       <c r="J173">
         <v>74</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K173" s="2">
         <v>1.87</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B174">
         <v>12952218</v>
@@ -7156,7 +6968,7 @@
       <c r="C174">
         <v>2.58</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="2">
         <v>325268</v>
       </c>
       <c r="E174">
@@ -7177,13 +6989,13 @@
       <c r="J174">
         <v>18</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K174" s="2">
         <v>0.17</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B175">
         <v>9877</v>
@@ -7191,7 +7003,7 @@
       <c r="C175">
         <v>0.3</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="2">
         <v>30</v>
       </c>
       <c r="E175">
@@ -7203,13 +7015,13 @@
       <c r="J175">
         <v>0</v>
       </c>
-      <c r="K175" s="3">
+      <c r="K175" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="B176">
         <v>6077</v>
@@ -7217,7 +7029,7 @@
       <c r="C176">
         <v>0.3</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="2">
         <v>18</v>
       </c>
       <c r="E176">
@@ -7229,13 +7041,13 @@
       <c r="J176">
         <v>27</v>
       </c>
-      <c r="K176" s="3">
+      <c r="K176" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="B177">
         <v>53199</v>
@@ -7243,7 +7055,7 @@
       <c r="C177">
         <v>0.71</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="2">
         <v>376</v>
       </c>
       <c r="E177">
@@ -7255,13 +7067,13 @@
       <c r="J177">
         <v>33</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K177" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B178">
         <v>183627</v>
@@ -7269,7 +7081,7 @@
       <c r="C178">
         <v>0.46</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="2">
         <v>837</v>
       </c>
       <c r="E178">
@@ -7290,13 +7102,13 @@
       <c r="J178">
         <v>19</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K178" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B179">
         <v>38666</v>
@@ -7304,7 +7116,7 @@
       <c r="C179">
         <v>1.75</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="2">
         <v>664</v>
       </c>
       <c r="E179">
@@ -7316,13 +7128,13 @@
       <c r="J179">
         <v>0</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K179" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="B180">
         <v>5794</v>
@@ -7330,7 +7142,7 @@
       <c r="C180">
         <v>-0.48</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="2">
         <v>-28</v>
       </c>
       <c r="E180">
@@ -7342,13 +7154,13 @@
       <c r="J180">
         <v>100</v>
       </c>
-      <c r="K180" s="3">
+      <c r="K180" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="B181">
         <v>198414</v>
@@ -7356,7 +7168,7 @@
       <c r="C181">
         <v>0.67</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="2">
         <v>1317</v>
       </c>
       <c r="E181">
@@ -7377,13 +7189,13 @@
       <c r="J181">
         <v>18</v>
       </c>
-      <c r="K181" s="3">
+      <c r="K181" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B182">
         <v>33931</v>
@@ -7391,7 +7203,7 @@
       <c r="C182">
         <v>0.21</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="2">
         <v>71</v>
       </c>
       <c r="E182">
@@ -7403,13 +7215,13 @@
       <c r="J182">
         <v>97</v>
       </c>
-      <c r="K182" s="3">
+      <c r="K182" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>219159</v>
@@ -7417,7 +7229,7 @@
       <c r="C183">
         <v>1.91</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="2">
         <v>4103</v>
       </c>
       <c r="E183">
@@ -7438,13 +7250,13 @@
       <c r="J183">
         <v>74</v>
       </c>
-      <c r="K183" s="3">
+      <c r="K183" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="B184">
         <v>34813871</v>
@@ -7452,7 +7264,7 @@
       <c r="C184">
         <v>1.59</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="2">
         <v>545343</v>
       </c>
       <c r="E184">
@@ -7473,13 +7285,13 @@
       <c r="J184">
         <v>84</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="2">
         <v>0.45</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B185">
         <v>16743927</v>
@@ -7487,7 +7299,7 @@
       <c r="C185">
         <v>2.75</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="2">
         <v>447563</v>
       </c>
       <c r="E185">
@@ -7508,13 +7320,13 @@
       <c r="J185">
         <v>49</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K185" s="2">
         <v>0.21</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B186">
         <v>8737371</v>
@@ -7522,7 +7334,7 @@
       <c r="C186">
         <v>-0.4</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="2">
         <v>-34864</v>
       </c>
       <c r="E186">
@@ -7543,13 +7355,13 @@
       <c r="J186">
         <v>56</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B187">
         <v>98347</v>
@@ -7557,7 +7369,7 @@
       <c r="C187">
         <v>0.62</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="2">
         <v>608</v>
       </c>
       <c r="E187">
@@ -7578,13 +7390,13 @@
       <c r="J187">
         <v>56</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K187" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B188">
         <v>7976983</v>
@@ -7592,7 +7404,7 @@
       <c r="C188">
         <v>2.1</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="2">
         <v>163768</v>
       </c>
       <c r="E188">
@@ -7613,13 +7425,13 @@
       <c r="J188">
         <v>43</v>
       </c>
-      <c r="K188" s="3">
+      <c r="K188" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B189">
         <v>5850342</v>
@@ -7627,7 +7439,7 @@
       <c r="C189">
         <v>0.79</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>460000000</v>
       </c>
       <c r="E189">
@@ -7645,13 +7457,13 @@
       <c r="I189">
         <v>42</v>
       </c>
-      <c r="K189" s="3">
+      <c r="K189" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B190">
         <v>42876</v>
@@ -7659,7 +7471,7 @@
       <c r="C190">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="2">
         <v>488</v>
       </c>
       <c r="E190">
@@ -7671,13 +7483,13 @@
       <c r="J190">
         <v>96</v>
       </c>
-      <c r="K190" s="3">
+      <c r="K190" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B191">
         <v>5459642</v>
@@ -7685,7 +7497,7 @@
       <c r="C191">
         <v>0.05</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="2">
         <v>2629</v>
       </c>
       <c r="E191">
@@ -7706,13 +7518,13 @@
       <c r="J191">
         <v>54</v>
       </c>
-      <c r="K191" s="3">
+      <c r="K191" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B192">
         <v>2078938</v>
@@ -7720,7 +7532,7 @@
       <c r="C192">
         <v>0.01</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="2">
         <v>284</v>
       </c>
       <c r="E192">
@@ -7741,13 +7553,13 @@
       <c r="J192">
         <v>55</v>
       </c>
-      <c r="K192" s="3">
+      <c r="K192" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="B193">
         <v>686884</v>
@@ -7755,7 +7567,7 @@
       <c r="C193">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="2">
         <v>17061</v>
       </c>
       <c r="E193">
@@ -7776,13 +7588,13 @@
       <c r="J193">
         <v>23</v>
       </c>
-      <c r="K193" s="3">
+      <c r="K193" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B194">
         <v>15893222</v>
@@ -7790,7 +7602,7 @@
       <c r="C194">
         <v>2.92</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="2">
         <v>450317</v>
       </c>
       <c r="E194">
@@ -7811,13 +7623,13 @@
       <c r="J194">
         <v>47</v>
       </c>
-      <c r="K194" s="3">
+      <c r="K194" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B195">
         <v>59308690</v>
@@ -7825,7 +7637,7 @@
       <c r="C195">
         <v>1.28</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="2">
         <v>750420</v>
       </c>
       <c r="E195">
@@ -7846,13 +7658,13 @@
       <c r="J195">
         <v>67</v>
       </c>
-      <c r="K195" s="3">
+      <c r="K195" s="2">
         <v>0.76</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="B196">
         <v>51269185</v>
@@ -7860,7 +7672,7 @@
       <c r="C196">
         <v>0.09</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="2">
         <v>43877</v>
       </c>
       <c r="E196">
@@ -7881,13 +7693,13 @@
       <c r="J196">
         <v>82</v>
       </c>
-      <c r="K196" s="3">
+      <c r="K196" s="2">
         <v>0.66</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B197">
         <v>11193725</v>
@@ -7895,7 +7707,7 @@
       <c r="C197">
         <v>1.19</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="2">
         <v>131612</v>
       </c>
       <c r="E197">
@@ -7916,13 +7728,13 @@
       <c r="J197">
         <v>25</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K197" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B198">
         <v>46754778</v>
@@ -7930,7 +7742,7 @@
       <c r="C198">
         <v>0.04</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>180000</v>
       </c>
       <c r="E198">
@@ -7951,13 +7763,13 @@
       <c r="J198">
         <v>80</v>
       </c>
-      <c r="K198" s="3">
+      <c r="K198" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B199">
         <v>21413249</v>
@@ -7965,7 +7777,7 @@
       <c r="C199">
         <v>0.42</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="2">
         <v>89516</v>
       </c>
       <c r="E199">
@@ -7986,13 +7798,13 @@
       <c r="J199">
         <v>18</v>
       </c>
-      <c r="K199" s="3">
+      <c r="K199" s="2">
         <v>0.27</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="B200">
         <v>110940</v>
@@ -8000,7 +7812,7 @@
       <c r="C200">
         <v>0.32</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="2">
         <v>351</v>
       </c>
       <c r="E200">
@@ -8021,13 +7833,13 @@
       <c r="J200">
         <v>53</v>
       </c>
-      <c r="K200" s="3">
+      <c r="K200" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B201">
         <v>5101414</v>
@@ -8035,7 +7847,7 @@
       <c r="C201">
         <v>2.41</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="2">
         <v>119994</v>
       </c>
       <c r="E201">
@@ -8056,13 +7868,13 @@
       <c r="J201">
         <v>80</v>
       </c>
-      <c r="K201" s="3">
+      <c r="K201" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B202">
         <v>43849260</v>
@@ -8070,7 +7882,7 @@
       <c r="C202">
         <v>2.42</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="2">
         <v>1036022</v>
       </c>
       <c r="E202">
@@ -8091,13 +7903,13 @@
       <c r="J202">
         <v>35</v>
       </c>
-      <c r="K202" s="3">
+      <c r="K202" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B203">
         <v>586632</v>
@@ -8105,7 +7917,7 @@
       <c r="C203">
         <v>0.9</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="2">
         <v>5260</v>
       </c>
       <c r="E203">
@@ -8126,13 +7938,13 @@
       <c r="J203">
         <v>65</v>
       </c>
-      <c r="K203" s="3">
+      <c r="K203" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B204">
         <v>10099265</v>
@@ -8140,7 +7952,7 @@
       <c r="C204">
         <v>0.63</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="2">
         <v>62886</v>
       </c>
       <c r="E204">
@@ -8161,13 +7973,13 @@
       <c r="J204">
         <v>88</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K204" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B205">
         <v>8654622</v>
@@ -8175,7 +7987,7 @@
       <c r="C205">
         <v>0.74</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="2">
         <v>63257</v>
       </c>
       <c r="E205">
@@ -8196,13 +8008,13 @@
       <c r="J205">
         <v>74</v>
       </c>
-      <c r="K205" s="3">
+      <c r="K205" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B206">
         <v>17500658</v>
@@ -8210,7 +8022,7 @@
       <c r="C206">
         <v>2.52</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="2">
         <v>430523</v>
       </c>
       <c r="E206">
@@ -8231,13 +8043,13 @@
       <c r="J206">
         <v>60</v>
       </c>
-      <c r="K206" s="3">
+      <c r="K206" s="2">
         <v>0.22</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B207">
         <v>23816775</v>
@@ -8245,7 +8057,7 @@
       <c r="C207">
         <v>0.18</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="2">
         <v>42899</v>
       </c>
       <c r="E207">
@@ -8266,13 +8078,13 @@
       <c r="J207">
         <v>79</v>
       </c>
-      <c r="K207" s="3">
+      <c r="K207" s="2">
         <v>0.31</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B208">
         <v>9537645</v>
@@ -8280,7 +8092,7 @@
       <c r="C208">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="2">
         <v>216627</v>
       </c>
       <c r="E208">
@@ -8301,13 +8113,13 @@
       <c r="J208">
         <v>27</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K208" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B209">
         <v>59734218</v>
@@ -8315,7 +8127,7 @@
       <c r="C209">
         <v>2.98</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="2">
         <v>1728755</v>
       </c>
       <c r="E209">
@@ -8336,13 +8148,13 @@
       <c r="J209">
         <v>37</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K209" s="2">
         <v>0.77</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B210">
         <v>69799978</v>
@@ -8350,7 +8162,7 @@
       <c r="C210">
         <v>0.25</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="2">
         <v>174396</v>
       </c>
       <c r="E210">
@@ -8371,13 +8183,13 @@
       <c r="J210">
         <v>51</v>
       </c>
-      <c r="K210" s="3">
+      <c r="K210" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B211">
         <v>1318445</v>
@@ -8385,7 +8197,7 @@
       <c r="C211">
         <v>1.96</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="2">
         <v>25326</v>
       </c>
       <c r="E211">
@@ -8406,13 +8218,13 @@
       <c r="J211">
         <v>33</v>
       </c>
-      <c r="K211" s="3">
+      <c r="K211" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B212">
         <v>8278724</v>
@@ -8420,7 +8232,7 @@
       <c r="C212">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="2">
         <v>196358</v>
       </c>
       <c r="E212">
@@ -8441,13 +8253,13 @@
       <c r="J212">
         <v>43</v>
       </c>
-      <c r="K212" s="3">
+      <c r="K212" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>1357</v>
@@ -8455,7 +8267,7 @@
       <c r="C213">
         <v>1.27</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="2">
         <v>17</v>
       </c>
       <c r="E213">
@@ -8467,13 +8279,13 @@
       <c r="J213">
         <v>0</v>
       </c>
-      <c r="K213" s="3">
+      <c r="K213" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="B214">
         <v>105695</v>
@@ -8481,7 +8293,7 @@
       <c r="C214">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="2">
         <v>1201</v>
       </c>
       <c r="E214">
@@ -8502,13 +8314,13 @@
       <c r="J214">
         <v>24</v>
       </c>
-      <c r="K214" s="3">
+      <c r="K214" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="B215">
         <v>1399488</v>
@@ -8516,7 +8328,7 @@
       <c r="C215">
         <v>0.32</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="2">
         <v>4515</v>
       </c>
       <c r="E215">
@@ -8537,13 +8349,13 @@
       <c r="J215">
         <v>52</v>
       </c>
-      <c r="K215" s="3">
+      <c r="K215" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B216">
         <v>11818619</v>
@@ -8551,7 +8363,7 @@
       <c r="C216">
         <v>1.06</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="2">
         <v>123900</v>
       </c>
       <c r="E216">
@@ -8572,13 +8384,13 @@
       <c r="J216">
         <v>70</v>
       </c>
-      <c r="K216" s="3">
+      <c r="K216" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="B217">
         <v>84339067</v>
@@ -8586,7 +8398,7 @@
       <c r="C217">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="2">
         <v>909452</v>
       </c>
       <c r="E217">
@@ -8607,13 +8419,13 @@
       <c r="J217">
         <v>76</v>
       </c>
-      <c r="K217" s="3">
+      <c r="K217" s="2">
         <v>1.08</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B218">
         <v>6031200</v>
@@ -8621,7 +8433,7 @@
       <c r="C218">
         <v>1.5</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="2">
         <v>89111</v>
       </c>
       <c r="E218">
@@ -8642,13 +8454,13 @@
       <c r="J218">
         <v>53</v>
       </c>
-      <c r="K218" s="3">
+      <c r="K218" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B219">
         <v>38717</v>
@@ -8656,7 +8468,7 @@
       <c r="C219">
         <v>1.38</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="2">
         <v>526</v>
       </c>
       <c r="E219">
@@ -8668,13 +8480,13 @@
       <c r="J219">
         <v>89</v>
       </c>
-      <c r="K219" s="3">
+      <c r="K219" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B220">
         <v>11792</v>
@@ -8682,7 +8494,7 @@
       <c r="C220">
         <v>1.25</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="2">
         <v>146</v>
       </c>
       <c r="E220">
@@ -8694,13 +8506,13 @@
       <c r="J220">
         <v>62</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K220" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B221">
         <v>104425</v>
@@ -8708,7 +8520,7 @@
       <c r="C221">
         <v>-0.15</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="2">
         <v>-153</v>
       </c>
       <c r="E221">
@@ -8729,13 +8541,13 @@
       <c r="J221">
         <v>96</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K221" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B222">
         <v>45741007</v>
@@ -8743,7 +8555,7 @@
       <c r="C222">
         <v>3.32</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="2">
         <v>1471413</v>
       </c>
       <c r="E222">
@@ -8764,13 +8576,13 @@
       <c r="J222">
         <v>26</v>
       </c>
-      <c r="K222" s="3">
+      <c r="K222" s="2">
         <v>0.59</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B223">
         <v>43733762</v>
@@ -8778,7 +8590,7 @@
       <c r="C223">
         <v>-0.59</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="2">
         <v>-259876</v>
       </c>
       <c r="E223">
@@ -8799,13 +8611,13 @@
       <c r="J223">
         <v>69</v>
       </c>
-      <c r="K223" s="3">
+      <c r="K223" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="B224">
         <v>9890402</v>
@@ -8813,7 +8625,7 @@
       <c r="C224">
         <v>1.23</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="2">
         <v>119873</v>
       </c>
       <c r="E224">
@@ -8834,13 +8646,13 @@
       <c r="J224">
         <v>86</v>
       </c>
-      <c r="K224" s="3">
+      <c r="K224" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B225">
         <v>67886011</v>
@@ -8848,7 +8660,7 @@
       <c r="C225">
         <v>0.53</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="2">
         <v>355839</v>
       </c>
       <c r="E225">
@@ -8869,13 +8681,13 @@
       <c r="J225">
         <v>83</v>
       </c>
-      <c r="K225" s="3">
+      <c r="K225" s="2">
         <v>0.87</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="B226">
         <v>331002651</v>
@@ -8883,7 +8695,7 @@
       <c r="C226">
         <v>0.59</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="2">
         <v>1937734</v>
       </c>
       <c r="E226">
@@ -8904,13 +8716,13 @@
       <c r="J226">
         <v>83</v>
       </c>
-      <c r="K226" s="3">
+      <c r="K226" s="2">
         <v>4.25</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B227">
         <v>3473730</v>
@@ -8918,7 +8730,7 @@
       <c r="C227">
         <v>0.35</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="2">
         <v>11996</v>
       </c>
       <c r="E227">
@@ -8939,13 +8751,13 @@
       <c r="J227">
         <v>96</v>
       </c>
-      <c r="K227" s="3">
+      <c r="K227" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B228">
         <v>33469203</v>
@@ -8953,7 +8765,7 @@
       <c r="C228">
         <v>1.48</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="2">
         <v>487487</v>
       </c>
       <c r="E228">
@@ -8974,13 +8786,13 @@
       <c r="J228">
         <v>50</v>
       </c>
-      <c r="K228" s="3">
+      <c r="K228" s="2">
         <v>0.43</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="B229">
         <v>307145</v>
@@ -8988,7 +8800,7 @@
       <c r="C229">
         <v>2.42</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="2">
         <v>7263</v>
       </c>
       <c r="E229">
@@ -9009,13 +8821,13 @@
       <c r="J229">
         <v>24</v>
       </c>
-      <c r="K229" s="3">
+      <c r="K229" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B230">
         <v>28435940</v>
@@ -9023,7 +8835,7 @@
       <c r="C230">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="2">
         <v>-79889</v>
       </c>
       <c r="E230">
@@ -9041,13 +8853,13 @@
       <c r="I230">
         <v>30</v>
       </c>
-      <c r="K230" s="3">
+      <c r="K230" s="2">
         <v>0.36</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B231">
         <v>97338579</v>
@@ -9055,7 +8867,7 @@
       <c r="C231">
         <v>0.91</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="2">
         <v>876473</v>
       </c>
       <c r="E231">
@@ -9076,13 +8888,13 @@
       <c r="J231">
         <v>38</v>
       </c>
-      <c r="K231" s="3">
+      <c r="K231" s="2">
         <v>1.25</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="B232">
         <v>11239</v>
@@ -9090,7 +8902,7 @@
       <c r="C232">
         <v>-1.69</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="2">
         <v>-193</v>
       </c>
       <c r="E232">
@@ -9102,13 +8914,13 @@
       <c r="J232">
         <v>0</v>
       </c>
-      <c r="K232" s="3">
+      <c r="K232" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="B233">
         <v>597339</v>
@@ -9116,7 +8928,7 @@
       <c r="C233">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="2">
         <v>14876</v>
       </c>
       <c r="E233">
@@ -9137,13 +8949,13 @@
       <c r="J233">
         <v>87</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K233" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B234">
         <v>29825964</v>
@@ -9151,7 +8963,7 @@
       <c r="C234">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="2">
         <v>664042</v>
       </c>
       <c r="E234">
@@ -9172,13 +8984,13 @@
       <c r="J234">
         <v>38</v>
       </c>
-      <c r="K234" s="3">
+      <c r="K234" s="2">
         <v>0.38</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B235">
         <v>18383955</v>
@@ -9186,7 +8998,7 @@
       <c r="C235">
         <v>2.93</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="2">
         <v>522925</v>
       </c>
       <c r="E235">
@@ -9207,13 +9019,13 @@
       <c r="J235">
         <v>45</v>
       </c>
-      <c r="K235" s="3">
+      <c r="K235" s="2">
         <v>0.24</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B236">
         <v>14862924</v>
@@ -9221,7 +9033,7 @@
       <c r="C236">
         <v>1.48</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="2">
         <v>217456</v>
       </c>
       <c r="E236">
@@ -9242,7 +9054,7 @@
       <c r="J236">
         <v>38</v>
       </c>
-      <c r="K236" s="3">
+      <c r="K236" s="2">
         <v>0.19</v>
       </c>
     </row>
@@ -9252,1921 +9064,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C642F-81D1-4FC1-9544-93C4BBA0A6B6}">
-  <dimension ref="A1:D236"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="D135" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>141</v>
-      </c>
-      <c r="D141" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="D145" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D147" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>148</v>
-      </c>
-      <c r="D149" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>150</v>
-      </c>
-      <c r="D151" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="D155" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>245</v>
-      </c>
-      <c r="D162" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>268</v>
-      </c>
-      <c r="D182" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="D185" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>184</v>
-      </c>
-      <c r="D186" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>192</v>
-      </c>
-      <c r="D194" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>194</v>
-      </c>
-      <c r="D196" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D202" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>207</v>
-      </c>
-      <c r="B209" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>209</v>
-      </c>
-      <c r="B211" t="s">
-        <v>209</v>
-      </c>
-      <c r="D211" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>213</v>
-      </c>
-      <c r="D213" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>214</v>
-      </c>
-      <c r="D216" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>215</v>
-      </c>
-      <c r="B217" t="s">
-        <v>215</v>
-      </c>
-      <c r="D217" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>216</v>
-      </c>
-      <c r="B218" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" t="s">
-        <v>220</v>
-      </c>
-      <c r="D220" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>218</v>
-      </c>
-      <c r="D221" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>221</v>
-      </c>
-      <c r="D222" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>222</v>
-      </c>
-      <c r="D223" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>219</v>
-      </c>
-      <c r="B226" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D228" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D232" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8414">
-    <sortCondition ref="A3:A8414"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>